--- a/DBMS.xlsx
+++ b/DBMS.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +487,7 @@
           <t>NoSQL</t>
         </is>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>25568.87529592593</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -517,9 +511,7 @@
           <t>distributed SQL</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>25568.87529592593</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -543,11 +535,7 @@
           <t>NoSQL</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>27/04/2005</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -571,9 +559,7 @@
           <t>distributed SQL</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>25568.87529592593</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -597,9 +583,7 @@
           <t>distributed SQL</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>25568.87529592593</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -623,41 +607,7 @@
           <t>NoSQL</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>25568.87529592593</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>[1534]</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>['DBMS CWB']</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>['CURITIBA (PR)']</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>['OTHER']</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['12/03/2002']</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DBMS.xlsx
+++ b/DBMS.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,178 +440,2037 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Serial number</t>
+          <t>CODIGO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>NOME</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unit(s)</t>
+          <t>UNIDADE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DBMS place</t>
+          <t>ULTIMO DIA DO MES</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>ULTIMO CUSTO</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Creation date</t>
+          <t>PREÇO DE VENDA - TABELA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CLASSE A</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CLASSE B</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CLASSE C</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CLASSE D</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>CLASSE E</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>VENDA TOTAL DO MES - VALOR</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CUSTO TOTAL DO MES</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>LUCRO TOTAL DO MES</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MARGEM PRATICADA</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>SUP. (DEF.)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ISP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>VENDA TOTAL DO MES - QTE.</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 20</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ISP.1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>ISR</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>CLASSE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 24</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>QTE.</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>DIAS S/ COMPRAR</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 28</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>ULTIMA VENDA DATA</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>DIAS S/ VENDER</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 31</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>DIAS</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>MESES</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>ANOS</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 35</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>SEM VENDAS</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>524</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DBMS ATL</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ATLANTA (GA)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NoSQL</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CLASSE A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CLASSE B</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CLASSE C</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CLASSE D</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CLASSE E</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>31245</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DBMS WST</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>WASHINGTON (WA)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>distributed SQL</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>300</v>
+      </c>
+      <c r="I3" t="n">
+        <v>210</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1715</v>
+      </c>
+      <c r="L3" t="n">
+        <v>245</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1312</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DBMS SAO</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SAO PAULO(SP)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NoSQL</t>
-        </is>
-      </c>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0.1214574898785425</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.08502024291497975</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.694331983805668</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>VENDAS</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="n">
+        <v>0.09919028340080972</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>12395</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DBMS PHX</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PRODUTO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PHOENIX (AZ)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>distributed SQL</t>
-        </is>
-      </c>
+          <t>ESTOQUE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>3700</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2470</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1230</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3324324324324324</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>3400</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2222</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1178</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3464705882352941</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>PERFORMANCE</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>ÚTIMA COMPRA</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>ÚLTIMA VENDA</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>PREVISÃO DE VENDA</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>374</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DBMS BOS</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
+          <t>NOME</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BOSTON (MA)</t>
+          <t>ÚLTIMO DIA DO MÊS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>distributed SQL</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>ÚLTIMO CUSTO</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>PREÇO DE VENDA - TABELA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>VENDA</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CUSTO</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>LUCRO BRUTO</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>MARGEM</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ISR-MÉDIA</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>VENDA TOTAL DO MÊS - VALOR</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>CUSTO TOTAL DO MÊS</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>LUCRO TOTAL DO MÊS</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>MARGEM PRATICADA</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>SUP. (DEF.)</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>ISP</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>VENDA TOTAL DO MÊS - QTE.</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>ISP</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>ISR</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>CLASSE</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>QTE.</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>DIAS S/ COMPRAR</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>DATA</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>DIAS S/ VENDER</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>DIAS</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>MESES</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>ANOS</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>SEM VENDAS</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>4366</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DBMS LOS</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>LOS ANGELES (CA)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NoSQL</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>123</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>arroz</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pcte</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>600</v>
+      </c>
+      <c r="I8" t="n">
+        <v>300</v>
+      </c>
+      <c r="J8" t="n">
+        <v>300</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.504065040650407</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>500</v>
+      </c>
+      <c r="P8" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>50</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.504065040650407</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1934</v>
+      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1875</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>333</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>feijao</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pcte</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>300</v>
+      </c>
+      <c r="I9" t="n">
+        <v>210</v>
+      </c>
+      <c r="J9" t="n">
+        <v>90</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>300</v>
+      </c>
+      <c r="O9" t="n">
+        <v>252</v>
+      </c>
+      <c r="P9" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="T9" t="n">
+        <v>36</v>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.4813008130081301</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>43141</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1894</v>
+      </c>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1875</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>333</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>feijao</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pcte</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>35</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>350</v>
+      </c>
+      <c r="I10" t="n">
+        <v>245</v>
+      </c>
+      <c r="J10" t="n">
+        <v>105</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>300</v>
+      </c>
+      <c r="O10" t="n">
+        <v>210</v>
+      </c>
+      <c r="P10" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>30</v>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="2" t="n">
+        <v>43141</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1894</v>
+      </c>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1875</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>333</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>feijao</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>pcte</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>35</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>350</v>
+      </c>
+      <c r="I11" t="n">
+        <v>245</v>
+      </c>
+      <c r="J11" t="n">
+        <v>105</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>300</v>
+      </c>
+      <c r="O11" t="n">
+        <v>210</v>
+      </c>
+      <c r="P11" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>30</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>43141</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1894</v>
+      </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1875</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>333</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>feijao</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>pcte</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>35</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>350</v>
+      </c>
+      <c r="I12" t="n">
+        <v>245</v>
+      </c>
+      <c r="J12" t="n">
+        <v>105</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>300</v>
+      </c>
+      <c r="O12" t="n">
+        <v>210</v>
+      </c>
+      <c r="P12" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>30</v>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="2" t="n">
+        <v>43141</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1894</v>
+      </c>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1875</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>333</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>feijao</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>pcte</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>35</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>350</v>
+      </c>
+      <c r="I13" t="n">
+        <v>245</v>
+      </c>
+      <c r="J13" t="n">
+        <v>105</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="2" t="n">
+        <v>43141</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1894</v>
+      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1875</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>333</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>feijao</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>pcte</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>35</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>350</v>
+      </c>
+      <c r="I14" t="n">
+        <v>245</v>
+      </c>
+      <c r="J14" t="n">
+        <v>105</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>300</v>
+      </c>
+      <c r="O14" t="n">
+        <v>210</v>
+      </c>
+      <c r="P14" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>30</v>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="2" t="n">
+        <v>43141</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1894</v>
+      </c>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1875</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>333</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>feijao</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>pcte</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>35</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>350</v>
+      </c>
+      <c r="I15" t="n">
+        <v>245</v>
+      </c>
+      <c r="J15" t="n">
+        <v>105</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>300</v>
+      </c>
+      <c r="O15" t="n">
+        <v>210</v>
+      </c>
+      <c r="P15" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>30</v>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="2" t="n">
+        <v>43141</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1894</v>
+      </c>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1875</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>333</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>feijao</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>pcte</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>35</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>350</v>
+      </c>
+      <c r="I16" t="n">
+        <v>245</v>
+      </c>
+      <c r="J16" t="n">
+        <v>105</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>300</v>
+      </c>
+      <c r="O16" t="n">
+        <v>210</v>
+      </c>
+      <c r="P16" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>30</v>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA16" s="2" t="n">
+        <v>43141</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1894</v>
+      </c>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1875</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>333</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>feijao</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>pcte</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>35</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>350</v>
+      </c>
+      <c r="I17" t="n">
+        <v>245</v>
+      </c>
+      <c r="J17" t="n">
+        <v>105</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>300</v>
+      </c>
+      <c r="O17" t="n">
+        <v>210</v>
+      </c>
+      <c r="P17" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>30</v>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="2" t="n">
+        <v>43141</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1894</v>
+      </c>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1875</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>METRO</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>LITRO</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4345</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>56874</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>56874</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4885</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>6654</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>7867</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>7567</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>7856</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>7845</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
